--- a/BackTest/2020-01-14 BackTest BCD.xlsx
+++ b/BackTest/2020-01-14 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4375.05126088</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4375.05126088</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4376.44606088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4379.03216088</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5093.7396777</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5089.8322777</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5089.8322777</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5169.8322777</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5268.8322777</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5188.8322777</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3291.4459777</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3291.4459777</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3303.4459777</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3303.4459777</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3662.1937777</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3662.1937777</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3340.3901777</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>586.7720777</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1292.0916777</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1092.0916777</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>890.4458777</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>548.2540776999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1070.6252777</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7734.1618223</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7734.1618223</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7654.1618223</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7527.587922299999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-7173.172922299999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4747.30423912</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1096.75393912</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2215.44633912</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2259.45603912</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1135.57133912</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1815.57133912</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2590.57133912</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3084.22673912</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3084.22673912</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3155.81223912</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3153.81223912</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3636.14373912</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7080.067439119999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7258.481939119999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9945.621239119999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17257.03933912</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2664,12 +2664,8 @@
       <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="I69" t="n">
-        <v>417</v>
-      </c>
-      <c r="J69" t="n">
-        <v>417</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2701,17 +2697,9 @@
       <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="I70" t="n">
-        <v>419</v>
-      </c>
-      <c r="J70" t="n">
-        <v>417</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>-18047.24763912</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>417</v>
-      </c>
-      <c r="J71" t="n">
-        <v>417</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>417</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2820,19 +2794,11 @@
         <v>-17879.24763912</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>419.6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>417</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2861,19 +2827,11 @@
         <v>-17879.24763912</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>420</v>
-      </c>
-      <c r="J74" t="n">
-        <v>417</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2860,11 @@
         <v>-17519.24763912</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>417</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2943,17 +2895,9 @@
       <c r="H76" t="n">
         <v>2</v>
       </c>
-      <c r="I76" t="n">
-        <v>420.3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>417</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2984,17 +2928,9 @@
       <c r="H77" t="n">
         <v>2</v>
       </c>
-      <c r="I77" t="n">
-        <v>420.3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>417</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3025,17 +2961,9 @@
       <c r="H78" t="n">
         <v>2</v>
       </c>
-      <c r="I78" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>417</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3066,17 +2994,9 @@
       <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>419.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>417</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3107,17 +3027,9 @@
       <c r="H80" t="n">
         <v>2</v>
       </c>
-      <c r="I80" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>417</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3146,17 +3058,11 @@
         <v>-18501.03593912</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>417</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3187,17 +3093,9 @@
       <c r="H82" t="n">
         <v>2</v>
       </c>
-      <c r="I82" t="n">
-        <v>418.2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>417</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3228,17 +3126,9 @@
       <c r="H83" t="n">
         <v>2</v>
       </c>
-      <c r="I83" t="n">
-        <v>417.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>417</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3267,17 +3157,11 @@
         <v>-19981.40033912</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>417</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3306,17 +3190,11 @@
         <v>-19979.23113912</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>417</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3345,17 +3223,11 @@
         <v>-20162.93113912</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>417</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3384,17 +3256,11 @@
         <v>-20162.93113912</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>417</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3423,17 +3289,11 @@
         <v>-23613.22453912</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>417</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3462,17 +3322,11 @@
         <v>-23611.73333912</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>417</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3501,17 +3355,11 @@
         <v>-35425.05333912</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>417</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3540,17 +3388,11 @@
         <v>-35389.05333912</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>417</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3581,17 +3423,9 @@
       <c r="H92" t="n">
         <v>2</v>
       </c>
-      <c r="I92" t="n">
-        <v>420.4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>417</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3620,17 +3454,11 @@
         <v>-35422.53773912</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>417</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3659,17 +3487,11 @@
         <v>-34689.83783912</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>417</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3698,17 +3520,11 @@
         <v>-34561.87023912</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>417</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3737,17 +3553,11 @@
         <v>-34825.17023912</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>417</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3776,17 +3586,11 @@
         <v>-4227325.17023912</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>417</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3815,17 +3619,11 @@
         <v>-4227325.17023912</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>417</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3857,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>417</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3896,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>417</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3935,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>417</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>417</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4013,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>417</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4052,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>417</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>417</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>417</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>417</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4208,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>417</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4247,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>417</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>417</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4325,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>417</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4364,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>417</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4403,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>417</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4439,19 +4147,11 @@
         <v>-4245074.410639119</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>416</v>
-      </c>
-      <c r="J114" t="n">
-        <v>417</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4480,19 +4180,11 @@
         <v>-4245032.928139119</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>414</v>
-      </c>
-      <c r="J115" t="n">
-        <v>417</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4521,19 +4213,11 @@
         <v>-4245439.412839119</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>419</v>
-      </c>
-      <c r="J116" t="n">
-        <v>417</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>417</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>417</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>417</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>417</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>417</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>417</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>417</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4835,17 +4477,15 @@
         <v>-4245757.412839119</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>416.9</v>
+      </c>
       <c r="J124" t="n">
-        <v>417</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>416.9</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4518,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4913,11 +4553,13 @@
         <v>-4246271.851439119</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>415.1</v>
+      </c>
       <c r="J126" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4952,11 +4594,13 @@
         <v>-4246269.851439119</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>415.1</v>
+      </c>
       <c r="J127" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4991,11 +4635,13 @@
         <v>-4247236.151439119</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>416.9</v>
+      </c>
       <c r="J128" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5030,13 +4676,13 @@
         <v>-4244568.151439119</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>415.9</v>
       </c>
       <c r="J129" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5071,13 +4717,11 @@
         <v>-4244566.679239119</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>416.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5112,13 +4756,13 @@
         <v>-4244566.679239119</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>417</v>
       </c>
       <c r="J131" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5153,13 +4797,13 @@
         <v>-4244566.679239119</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>417</v>
       </c>
       <c r="J132" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5194,13 +4838,13 @@
         <v>-4244592.883239119</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>417</v>
       </c>
       <c r="J133" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5235,13 +4879,13 @@
         <v>-4244992.883239119</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>416.9</v>
       </c>
       <c r="J134" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5276,13 +4920,13 @@
         <v>-4241940.64833912</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>416.1</v>
       </c>
       <c r="J135" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5317,11 +4961,13 @@
         <v>-4240769.05133912</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>417</v>
+      </c>
       <c r="J136" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5356,11 +5002,13 @@
         <v>-4240808.304339119</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>418</v>
+      </c>
       <c r="J137" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5395,11 +5043,13 @@
         <v>-4240118.121339119</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>417.9</v>
+      </c>
       <c r="J138" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5438,7 +5088,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5477,7 +5127,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5516,7 +5166,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5551,13 +5201,11 @@
         <v>-4240116.277739119</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5596,7 +5244,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5635,7 +5283,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5674,7 +5322,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5713,7 +5361,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5752,7 +5400,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5791,7 +5439,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5830,7 +5478,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5869,7 +5517,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5904,11 +5552,13 @@
         <v>-4260592.142239119</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>415.2</v>
+      </c>
       <c r="J151" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5945,9 +5595,11 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>418</v>
+      </c>
       <c r="J152" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5982,11 +5634,13 @@
         <v>-4260690.442239119</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>416.2</v>
+      </c>
       <c r="J153" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6023,9 +5677,11 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>417.9</v>
+      </c>
       <c r="J154" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6060,11 +5716,13 @@
         <v>-4260690.442239119</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>417.9</v>
+      </c>
       <c r="J155" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6101,9 +5759,11 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>417.9</v>
+      </c>
       <c r="J156" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6140,9 +5800,11 @@
       <c r="H157" t="n">
         <v>1</v>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>418</v>
+      </c>
       <c r="J157" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6179,9 +5841,11 @@
       <c r="H158" t="n">
         <v>1</v>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>419</v>
+      </c>
       <c r="J158" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6218,9 +5882,11 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>419</v>
+      </c>
       <c r="J159" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6257,9 +5923,11 @@
       <c r="H160" t="n">
         <v>1</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>419</v>
+      </c>
       <c r="J160" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6296,9 +5964,11 @@
       <c r="H161" t="n">
         <v>1</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>420</v>
+      </c>
       <c r="J161" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6333,11 +6003,11 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6372,11 +6042,11 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6411,11 +6081,11 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6450,11 +6120,11 @@
         <v>-4259825.512839119</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6489,11 +6159,11 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6528,11 +6198,11 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6569,9 +6239,11 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>420</v>
+      </c>
       <c r="J168" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6608,9 +6280,11 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>420.5</v>
+      </c>
       <c r="J169" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6647,9 +6321,11 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>419</v>
+      </c>
       <c r="J170" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6684,13 +6360,13 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>418</v>
       </c>
       <c r="J171" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6725,13 +6401,13 @@
         <v>-4257770.585539119</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>418</v>
       </c>
       <c r="J172" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6766,13 +6442,13 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>419.2</v>
       </c>
       <c r="J173" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6809,9 +6485,11 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>419.1</v>
+      </c>
       <c r="J174" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6848,9 +6526,11 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>419.1</v>
+      </c>
       <c r="J175" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6887,9 +6567,11 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>420.2</v>
+      </c>
       <c r="J176" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6926,9 +6608,11 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>420.4</v>
+      </c>
       <c r="J177" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6965,9 +6649,11 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>420.4</v>
+      </c>
       <c r="J178" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7004,9 +6690,11 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>421.4</v>
+      </c>
       <c r="J179" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7043,9 +6731,11 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>421.4</v>
+      </c>
       <c r="J180" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7080,13 +6770,11 @@
         <v>-4255823.770139119</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>421.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7123,9 +6811,11 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>421.4</v>
+      </c>
       <c r="J182" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7160,11 +6850,11 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7199,11 +6889,11 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7242,7 +6932,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7277,11 +6967,11 @@
         <v>-4253926.27842431</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7320,7 +7010,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7359,7 +7049,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7398,7 +7088,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7433,11 +7123,11 @@
         <v>-4253624.642624309</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7472,11 +7162,11 @@
         <v>-4253371.642624309</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7511,11 +7201,11 @@
         <v>-4250238.302324309</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7554,7 +7244,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7589,11 +7279,11 @@
         <v>-4250234.962024309</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7628,11 +7318,11 @@
         <v>-4250534.962024309</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7667,11 +7357,11 @@
         <v>-4255924.962024309</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7710,7 +7400,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7745,11 +7435,13 @@
         <v>-4254749.455034649</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>423.7</v>
+      </c>
       <c r="J198" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7784,11 +7476,13 @@
         <v>-4254748.255034649</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>422</v>
+      </c>
       <c r="J199" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7823,13 +7517,13 @@
         <v>-4254750.255034649</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>423.7</v>
       </c>
       <c r="J200" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7864,13 +7558,11 @@
         <v>-4254729.418034649</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7905,13 +7597,11 @@
         <v>-4252015.228624308</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>423.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7950,7 +7640,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7989,7 +7679,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8028,7 +7718,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8067,7 +7757,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8106,7 +7796,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8145,7 +7835,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8184,7 +7874,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8223,7 +7913,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8262,7 +7952,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8301,7 +7991,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8340,7 +8030,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8375,19 +8065,19 @@
         <v>-4202676.16911554</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>417</v>
+        <v>416.9</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.029532374100719</v>
+        <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
@@ -8414,11 +8104,17 @@
         <v>-4202597.019115539</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8450,8 +8146,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +8182,17 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8516,8 +8224,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8546,11 +8260,17 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8579,11 +8299,17 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8612,11 +8338,17 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8377,17 @@
         <v>-4221032.150215539</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +8416,17 @@
         <v>-4222040.303015539</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8714,8 +8458,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8744,11 +8494,17 @@
         <v>-4217110.96891554</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8780,8 +8536,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8813,8 +8575,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8846,8 +8614,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8876,11 +8650,17 @@
         <v>-4218580.94141554</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8912,8 +8692,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8945,8 +8731,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8975,11 +8767,17 @@
         <v>-4224930.23351229</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9008,11 +8806,17 @@
         <v>-4224930.23351229</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +8848,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9074,11 +8884,17 @@
         <v>-4224755.216812289</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +8926,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +8965,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +9004,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9043,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9082,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9121,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9160,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +9199,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +9238,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +9277,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +9316,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +9355,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +9394,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +9433,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +9472,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +9511,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +9550,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +9628,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +9667,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +9706,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +9745,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +9784,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +9823,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +9862,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +9901,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +9940,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +9979,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +10018,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +10057,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +10096,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +10135,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +10174,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +10213,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +10252,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +10291,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +10330,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +10369,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +10408,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10447,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +10486,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +10525,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10496,8 +10564,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +10603,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +10642,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +10681,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +10720,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +10759,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +10798,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +10837,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +10876,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +10915,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +10954,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +10993,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +11032,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +11071,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +11110,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +11149,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +11188,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +11227,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +11266,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +11305,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +11344,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +11383,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +11422,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +11461,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +11500,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +11539,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +11578,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +11617,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +11656,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +11695,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +11734,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +11773,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +11812,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +11851,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +11890,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11651,8 +11929,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +11968,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11717,8 +12007,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +12046,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +12085,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11816,8 +12124,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12163,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +12202,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +12241,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +12280,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +12319,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +12358,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12047,8 +12397,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +12436,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +12475,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +12514,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +12553,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12212,8 +12592,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +12631,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +12670,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12311,8 +12709,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +12748,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12377,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12410,8 +12826,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12443,8 +12865,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12476,8 +12904,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +12943,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12542,8 +12982,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13060,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12641,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12872,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12971,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13037,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +13606,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +13645,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +13762,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13235,8 +13801,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13268,8 +13840,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13301,8 +13879,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13334,8 +13918,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13367,8 +13957,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +13996,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +14035,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13466,8 +14074,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +14113,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +14152,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13565,8 +14191,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +14230,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13628,11 +14266,17 @@
         <v>-4188169.168438106</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13661,11 +14305,17 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +14344,17 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +14383,17 @@
         <v>-4189553.236938106</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +14425,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +14464,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +14503,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +14581,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +14659,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +14737,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +14815,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +14893,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +14932,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +14971,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +15010,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +15049,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +15127,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +15166,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +15205,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +15244,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +15283,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +15400,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +15439,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +15478,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +15517,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +15556,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +15595,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +15634,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +15673,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +15712,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +15751,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +15787,19 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>429.2</v>
+      </c>
+      <c r="J412" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14948,11 +15828,19 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>429.2</v>
+      </c>
+      <c r="J413" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14981,11 +15869,19 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>429.2</v>
+      </c>
+      <c r="J414" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15014,11 +15910,19 @@
         <v>-4216609.340815075</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>429.2</v>
+      </c>
+      <c r="J415" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +15954,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +15993,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +16032,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +16071,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15182,8 +16110,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +16149,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +16188,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +16227,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15314,14 +16266,20 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
       <c r="M424" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BCD.xlsx
+++ b/BackTest/2020-01-14 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5212.14246088</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4375.05126088</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4375.05126088</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>4378.68946088</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4376.44606088</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4379.03216088</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5093.7396777</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5089.8322777</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5089.8322777</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5169.8322777</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5268.8322777</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5188.8322777</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3291.4459777</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3291.4459777</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3303.4459777</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3303.4459777</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3662.1937777</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3662.1937777</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3340.3901777</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>586.7720777</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1292.0916777</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1092.0916777</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>890.4458777</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>548.2540776999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1070.6252777</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7734.1618223</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7734.1618223</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7654.1618223</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7527.587922299999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-7173.172922299999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4747.30423912</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1096.75393912</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2215.44633912</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2259.45603912</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1135.57133912</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1815.57133912</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2590.57133912</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3084.22673912</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3084.22673912</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3155.81223912</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3153.81223912</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3636.14373912</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7080.067439119999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7258.481939119999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9945.621239119999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17257.03933912</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-17255.25043912</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18049.24763912</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-17519.24763912</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-17519.24763912</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-15156.92273912</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15192.92273912</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-15190.95353912</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-17370.22763912</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-18501.03593912</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19985.00033912</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-19981.40033912</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-19981.40033912</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-19979.23113912</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20162.93113912</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-20162.93113912</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-23613.22453912</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-23611.73333912</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-35425.05333912</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-35389.05333912</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-35389.05333912</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-35422.53773912</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-34689.83783912</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-34561.87023912</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-34825.17023912</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4227325.17023912</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4227325.17023912</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4477,14 +4477,10 @@
         <v>-4245757.412839119</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="J124" t="n">
-        <v>416.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4517,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4553,19 +4543,11 @@
         <v>-4246271.851439119</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>415.1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4594,19 +4576,11 @@
         <v>-4246269.851439119</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>415.1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4635,19 +4609,11 @@
         <v>-4247236.151439119</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4676,19 +4642,11 @@
         <v>-4244568.151439119</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>415.9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4756,19 +4708,11 @@
         <v>-4244566.679239119</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>417</v>
-      </c>
-      <c r="J131" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4797,19 +4741,11 @@
         <v>-4244566.679239119</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>417</v>
-      </c>
-      <c r="J132" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4838,19 +4774,11 @@
         <v>-4244592.883239119</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>417</v>
-      </c>
-      <c r="J133" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4879,19 +4807,11 @@
         <v>-4244992.883239119</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4920,19 +4840,11 @@
         <v>-4241940.64833912</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>416.1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4961,19 +4873,11 @@
         <v>-4240769.05133912</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>417</v>
-      </c>
-      <c r="J136" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5002,19 +4906,11 @@
         <v>-4240808.304339119</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>418</v>
-      </c>
-      <c r="J137" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5043,19 +4939,11 @@
         <v>-4240118.121339119</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5438,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5477,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5552,19 +5368,11 @@
         <v>-4260592.142239119</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>415.2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5599,13 +5407,9 @@
         <v>418</v>
       </c>
       <c r="J152" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5444,11 @@
         <v>416.2</v>
       </c>
       <c r="J153" t="n">
-        <v>416.9</v>
+        <v>418</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5681,11 +5485,11 @@
         <v>417.9</v>
       </c>
       <c r="J154" t="n">
-        <v>416.9</v>
+        <v>418</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5716,19 +5520,11 @@
         <v>-4260690.442239119</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5763,13 +5559,9 @@
         <v>417.9</v>
       </c>
       <c r="J156" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>417.9</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +5596,11 @@
         <v>418</v>
       </c>
       <c r="J157" t="n">
-        <v>416.9</v>
+        <v>417.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5845,11 +5637,11 @@
         <v>419</v>
       </c>
       <c r="J158" t="n">
-        <v>416.9</v>
+        <v>417.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5880,19 +5672,11 @@
         <v>-4260416.771939118</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>419</v>
-      </c>
-      <c r="J159" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5921,19 +5705,11 @@
         <v>-4258156.282739119</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>419</v>
-      </c>
-      <c r="J160" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5962,19 +5738,11 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>420</v>
-      </c>
-      <c r="J161" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6006,14 +5774,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6045,14 +5807,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6084,14 +5840,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6123,14 +5873,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5906,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6201,14 +5939,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6237,19 +5969,11 @@
         <v>-4256781.978139119</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>420</v>
-      </c>
-      <c r="J168" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6278,19 +6002,11 @@
         <v>-4256783.278639119</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6319,19 +6035,11 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>419</v>
-      </c>
-      <c r="J170" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6360,19 +6068,11 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>418</v>
-      </c>
-      <c r="J171" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6407,13 +6107,9 @@
         <v>418</v>
       </c>
       <c r="J172" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6442,17 +6138,15 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>419.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>416.9</v>
+        <v>418</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6483,17 +6177,15 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>419.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>416.9</v>
+        <v>418</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6524,19 +6216,11 @@
         <v>-4256115.136539119</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>419.1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6565,19 +6249,11 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>420.2</v>
-      </c>
-      <c r="J176" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6606,19 +6282,11 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>420.4</v>
-      </c>
-      <c r="J177" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6647,19 +6315,11 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>420.4</v>
-      </c>
-      <c r="J178" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6688,19 +6348,11 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="J179" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6729,19 +6381,11 @@
         <v>-4252749.154239119</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6773,14 +6417,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6809,19 +6447,11 @@
         <v>-4257379.423757149</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="J182" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6853,14 +6483,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +6516,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +6549,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6970,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7009,14 +6615,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +6648,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7087,14 +6681,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7126,14 +6714,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6747,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6813,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6846,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7321,14 +6879,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7360,14 +6912,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7399,14 +6945,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7435,19 +6975,11 @@
         <v>-4254749.455034649</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>423.7</v>
-      </c>
-      <c r="J198" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7476,19 +7008,11 @@
         <v>-4254748.255034649</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>422</v>
-      </c>
-      <c r="J199" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7517,19 +7041,11 @@
         <v>-4254750.255034649</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>423.7</v>
-      </c>
-      <c r="J200" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7561,14 +7077,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7600,14 +7110,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7639,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7678,14 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7717,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7756,14 +7242,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7795,14 +7275,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7834,14 +7308,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7873,14 +7341,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7912,14 +7374,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7948,17 +7404,11 @@
         <v>-4225665.041671619</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7987,17 +7437,11 @@
         <v>-4219386.028871619</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8026,17 +7470,11 @@
         <v>-4193019.370815539</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8068,14 +7506,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8107,14 +7539,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8146,14 +7572,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8185,14 +7605,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8224,14 +7638,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8263,14 +7671,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8302,14 +7704,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8341,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8380,14 +7770,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8419,14 +7803,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8458,14 +7836,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8497,14 +7869,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8536,14 +7902,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8575,14 +7935,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8614,14 +7968,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8653,14 +8001,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8692,14 +8034,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8731,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8770,14 +8100,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8809,14 +8133,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8848,14 +8166,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8887,14 +8199,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8926,14 +8232,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8965,14 +8265,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +8298,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9043,14 +8331,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9082,14 +8364,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9121,14 +8397,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +8430,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9199,14 +8463,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9238,14 +8496,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8529,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9316,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9355,14 +8595,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +8628,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +8661,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9472,14 +8694,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9511,14 +8727,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9550,14 +8760,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9589,14 +8793,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9628,14 +8826,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9667,14 +8859,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9745,14 +8925,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9784,14 +8958,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +8991,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9862,14 +9024,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +9057,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9940,14 +9090,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9979,14 +9123,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +9156,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +9189,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10096,14 +9222,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +9255,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9288,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +9321,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +9354,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +9387,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +9420,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +9453,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +9486,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +9519,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +9552,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +9585,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +9618,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +9651,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +9684,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +9717,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +9750,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +9783,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +9816,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +9849,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +9882,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +9915,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +9948,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +9981,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +10014,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +10080,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +10113,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +10146,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +10179,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +10212,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +10245,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +10278,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10311,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +10344,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +10377,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10410,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +10443,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +10476,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +10509,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +10542,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +10575,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +10608,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +10641,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +10674,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +10707,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +10740,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +10773,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +10806,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +10839,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12046,14 +10872,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12085,14 +10905,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +10938,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +10971,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +11004,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +11037,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +11070,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +11103,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +11136,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12397,14 +11169,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12436,14 +11202,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12475,14 +11235,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12514,14 +11268,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12553,14 +11301,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12592,14 +11334,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +11367,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12670,14 +11400,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12709,14 +11433,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12748,14 +11466,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12787,14 +11499,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12826,14 +11532,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12865,14 +11565,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12904,14 +11598,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12943,14 +11631,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12982,14 +11664,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13021,14 +11697,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13060,14 +11730,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13099,14 +11763,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13138,14 +11796,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13177,14 +11829,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13216,14 +11862,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +11895,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13294,14 +11928,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13333,14 +11961,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13372,14 +11994,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13411,14 +12027,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13450,14 +12060,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13489,14 +12093,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13528,14 +12126,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13567,14 +12159,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13606,14 +12192,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13645,14 +12225,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13684,14 +12258,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13723,14 +12291,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13762,14 +12324,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13801,14 +12357,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13840,14 +12390,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +12423,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13918,14 +12456,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13957,14 +12489,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13996,14 +12522,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14035,14 +12555,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14074,14 +12588,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14113,14 +12621,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14152,14 +12654,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14191,14 +12687,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14230,14 +12720,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14269,14 +12753,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14308,14 +12786,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14347,14 +12819,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14386,14 +12852,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14425,14 +12885,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14464,14 +12918,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14503,14 +12951,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14542,14 +12984,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14581,14 +13017,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14620,14 +13050,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14659,14 +13083,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +13116,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14737,14 +13149,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14776,14 +13182,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14815,14 +13215,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14854,14 +13248,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14893,14 +13281,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +13314,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14971,14 +13347,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15010,14 +13380,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15049,14 +13413,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15088,14 +13446,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +13479,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +13512,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +13545,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15244,14 +13578,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15283,14 +13611,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15322,14 +13644,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15361,14 +13677,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15400,14 +13710,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15439,14 +13743,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15478,14 +13776,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15517,14 +13809,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15556,14 +13842,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15595,14 +13875,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15634,14 +13908,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +13941,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15712,14 +13974,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15751,14 +14007,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15787,19 +14037,11 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>429.2</v>
-      </c>
-      <c r="J412" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15828,19 +14070,11 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>429.2</v>
-      </c>
-      <c r="J413" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15869,19 +14103,11 @@
         <v>-4212963.040233995</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>429.2</v>
-      </c>
-      <c r="J414" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15910,19 +14136,11 @@
         <v>-4216609.340815075</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>429.2</v>
-      </c>
-      <c r="J415" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15954,14 +14172,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15993,14 +14205,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16032,14 +14238,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16071,14 +14271,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16110,14 +14304,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16149,14 +14337,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16188,14 +14370,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16224,17 +14400,15 @@
         <v>-4212689.231048384</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>431.2</v>
+      </c>
       <c r="J423" t="n">
-        <v>416.9</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>431.2</v>
+      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16267,11 +14441,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>416.9</v>
+        <v>431.2</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L424" t="n">
@@ -16280,6 +14454,6 @@
       <c r="M424" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BCD.xlsx
+++ b/BackTest/2020-01-14 BackTest BCD.xlsx
@@ -5368,10 +5368,14 @@
         <v>-4260592.142239119</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>415.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>415.2</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5407,9 +5411,13 @@
         <v>418</v>
       </c>
       <c r="J152" t="n">
-        <v>418</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+        <v>415.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>416.2</v>
       </c>
       <c r="J153" t="n">
-        <v>418</v>
+        <v>415.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5485,46 +5493,50 @@
         <v>417.9</v>
       </c>
       <c r="J154" t="n">
-        <v>418</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>417.9</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>412.3</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4260690.442239119</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="J155" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="C155" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="E155" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="F155" t="n">
-        <v>412.3</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4260690.442239119</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +5573,11 @@
       <c r="J156" t="n">
         <v>417.9</v>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5596,13 +5612,9 @@
         <v>418</v>
       </c>
       <c r="J157" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5637,7 +5649,7 @@
         <v>419</v>
       </c>
       <c r="J158" t="n">
-        <v>417.9</v>
+        <v>418</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5672,11 +5684,19 @@
         <v>-4260416.771939118</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>419</v>
+      </c>
+      <c r="J159" t="n">
+        <v>418</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5705,10 +5725,14 @@
         <v>-4258156.282739119</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>419</v>
+      </c>
+      <c r="J160" t="n">
+        <v>419</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5738,11 +5762,19 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>420</v>
+      </c>
+      <c r="J161" t="n">
+        <v>419</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +5803,19 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>419</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5804,10 +5844,14 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>421.1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5837,11 +5881,19 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5922,19 @@
         <v>-4259825.512839119</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +5963,19 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>421</v>
+      </c>
+      <c r="J166" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5936,11 +6004,19 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>420</v>
+      </c>
+      <c r="J167" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +6045,19 @@
         <v>-4256781.978139119</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>420</v>
+      </c>
+      <c r="J168" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6002,11 +6086,19 @@
         <v>-4256783.278639119</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J169" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +6127,19 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>419</v>
+      </c>
+      <c r="J170" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +6168,19 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>418</v>
+      </c>
+      <c r="J171" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6107,9 +6215,13 @@
         <v>418</v>
       </c>
       <c r="J172" t="n">
-        <v>418</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+        <v>421.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6138,15 +6250,17 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>419.2</v>
+      </c>
       <c r="J173" t="n">
-        <v>418</v>
+        <v>421.1</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6177,15 +6291,17 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>419.1</v>
+      </c>
       <c r="J174" t="n">
-        <v>418</v>
+        <v>421.1</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6216,11 +6332,19 @@
         <v>-4256115.136539119</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>419.1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6249,11 +6373,19 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>420.2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6414,19 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>420.4</v>
+      </c>
+      <c r="J177" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +6455,19 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>420.4</v>
+      </c>
+      <c r="J178" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6496,19 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>421.4</v>
+      </c>
+      <c r="J179" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6537,19 @@
         <v>-4252749.154239119</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>421.4</v>
+      </c>
+      <c r="J180" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6578,19 @@
         <v>-4255823.770139119</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6619,19 @@
         <v>-4257379.423757149</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>421.4</v>
+      </c>
+      <c r="J182" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6660,19 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>420.1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6701,19 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="J184" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +6742,19 @@
         <v>-4252830.696789339</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="J185" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6783,19 @@
         <v>-4253926.27842431</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6824,19 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="J187" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +6865,19 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6906,19 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6947,19 @@
         <v>-4253624.642624309</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6744,11 +6988,19 @@
         <v>-4253371.642624309</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="J191" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +7029,19 @@
         <v>-4250238.302324309</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>422.7</v>
+      </c>
+      <c r="J192" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +7070,19 @@
         <v>-4250239.962024309</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>422.8</v>
+      </c>
+      <c r="J193" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +7111,19 @@
         <v>-4250234.962024309</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>422</v>
+      </c>
+      <c r="J194" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +7152,19 @@
         <v>-4250534.962024309</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>423.6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6912,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6942,11 +7232,19 @@
         <v>-4254744.675634649</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>423.4</v>
+      </c>
+      <c r="J197" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +7273,19 @@
         <v>-4254749.455034649</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>423.7</v>
+      </c>
+      <c r="J198" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7008,11 +7314,19 @@
         <v>-4254748.255034649</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>422</v>
+      </c>
+      <c r="J199" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7041,11 +7355,19 @@
         <v>-4254750.255034649</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>423.7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7074,11 +7396,19 @@
         <v>-4254729.418034649</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>422</v>
+      </c>
+      <c r="J201" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7110,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7479,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7176,8 +7518,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7209,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7242,8 +7596,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7275,8 +7635,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7308,8 +7674,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7341,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7374,8 +7752,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +7788,17 @@
         <v>-4225665.041671619</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +7827,17 @@
         <v>-4219386.028871619</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7473,10 +7869,16 @@
         <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>1.038695084303016</v>
       </c>
       <c r="M213" t="inlineStr"/>
     </row>
@@ -7503,7 +7905,7 @@
         <v>-4202676.16911554</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7536,7 +7938,7 @@
         <v>-4202597.019115539</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7569,7 +7971,7 @@
         <v>-4202597.019115539</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7602,7 +8004,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7635,7 +8037,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7668,7 +8070,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7701,7 +8103,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7734,7 +8136,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7767,7 +8169,7 @@
         <v>-4221032.150215539</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9186,7 +9588,7 @@
         <v>-4195091.104108898</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9219,7 +9621,7 @@
         <v>-4195082.929408898</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9351,7 +9753,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9384,7 +9786,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9417,7 +9819,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9450,7 +9852,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9483,7 +9885,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9516,7 +9918,7 @@
         <v>-4208363.684556808</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10605,7 +11007,7 @@
         <v>-4173367.801356808</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10638,7 +11040,7 @@
         <v>-4173364.601356808</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12684,7 +13086,7 @@
         <v>-4195698.433438106</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12717,7 +13119,7 @@
         <v>-4187588.018438106</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12750,7 +13152,7 @@
         <v>-4188169.168438106</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12783,7 +13185,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12816,7 +13218,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12849,7 +13251,7 @@
         <v>-4189553.236938106</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12882,7 +13284,7 @@
         <v>-4189551.710138106</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12915,7 +13317,7 @@
         <v>-4189551.710138106</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12948,7 +13350,7 @@
         <v>-4192131.328038106</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12981,7 +13383,7 @@
         <v>-4191420.365338106</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13014,7 +13416,7 @@
         <v>-4190906.250861636</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13047,7 +13449,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13080,7 +13482,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13113,7 +13515,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13146,7 +13548,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13179,7 +13581,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13212,7 +13614,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13245,7 +13647,7 @@
         <v>-4194895.064961636</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13278,7 +13680,7 @@
         <v>-4194892.714961637</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13311,7 +13713,7 @@
         <v>-4194981.409161637</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13344,7 +13746,7 @@
         <v>-4193833.210661637</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13377,7 +13779,7 @@
         <v>-4193383.210661637</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13410,7 +13812,7 @@
         <v>-4193640.972261637</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13443,7 +13845,7 @@
         <v>-4193790.972261637</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13476,7 +13878,7 @@
         <v>-4193790.972261637</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13509,7 +13911,7 @@
         <v>-4194084.433861637</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13542,7 +13944,7 @@
         <v>-4194082.433861637</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13575,7 +13977,7 @@
         <v>-4194243.933861637</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13608,7 +14010,7 @@
         <v>-4197096.978161637</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13674,7 +14076,7 @@
         <v>-4199569.630261636</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14400,14 +14802,10 @@
         <v>-4212689.231048384</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>431.2</v>
-      </c>
-      <c r="J423" t="n">
-        <v>431.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
@@ -14440,14 +14838,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>431.2</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
